--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Grem1</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.381286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4553359136251109</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5170035742760599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N2">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O2">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P2">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q2">
-        <v>19.49448304867245</v>
+        <v>11.49324200826222</v>
       </c>
       <c r="R2">
-        <v>175.450347438052</v>
+        <v>103.43917807436</v>
       </c>
       <c r="S2">
-        <v>0.9432535557163702</v>
+        <v>0.3931672455980253</v>
       </c>
       <c r="T2">
-        <v>0.9461442014370421</v>
+        <v>0.4475275555131847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.381286</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4553359136251109</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5170035742760599</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,10 +626,10 @@
         <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P3">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q3">
         <v>0.008014801180444444</v>
@@ -638,10 +638,10 @@
         <v>0.07213321062399999</v>
       </c>
       <c r="S3">
-        <v>0.0003878014971178633</v>
+        <v>0.0002741747978390998</v>
       </c>
       <c r="T3">
-        <v>0.0003889899333885992</v>
+        <v>0.0003120829072971744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.381286</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4553359136251109</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5170035742760599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N4">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O4">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P4">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q4">
-        <v>0.7273639660297776</v>
+        <v>1.203334167663333</v>
       </c>
       <c r="R4">
-        <v>6.546275694267999</v>
+        <v>10.83000750897</v>
       </c>
       <c r="S4">
-        <v>0.0351939902968738</v>
+        <v>0.04116432768874756</v>
       </c>
       <c r="T4">
-        <v>0.03530184396657746</v>
+        <v>0.04685581301887937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.381286</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4553359136251109</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5170035742760599</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N5">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O5">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P5">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q5">
-        <v>0.189427078946</v>
+        <v>0.09925300349366667</v>
       </c>
       <c r="R5">
-        <v>1.136562473676</v>
+        <v>0.595518020962</v>
       </c>
       <c r="S5">
-        <v>0.009165555471189982</v>
+        <v>0.003395302210889092</v>
       </c>
       <c r="T5">
-        <v>0.006129095836753322</v>
+        <v>0.002576496924536514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.381286</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4553359136251109</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5170035742760599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,958 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N6">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O6">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P6">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q6">
-        <v>0.2479886685906666</v>
+        <v>0.5067405325800001</v>
       </c>
       <c r="R6">
-        <v>2.231898017316</v>
+        <v>4.560664793220001</v>
       </c>
       <c r="S6">
-        <v>0.01199909701844822</v>
+        <v>0.01733486332960974</v>
       </c>
       <c r="T6">
-        <v>0.0120358688262385</v>
+        <v>0.0197316259121621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01090033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.032701</v>
+      </c>
+      <c r="I7">
+        <v>0.03905189204810759</v>
+      </c>
+      <c r="J7">
+        <v>0.0443408199682166</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>90.43008666666667</v>
+      </c>
+      <c r="N7">
+        <v>271.29026</v>
+      </c>
+      <c r="O7">
+        <v>0.863466363695901</v>
+      </c>
+      <c r="P7">
+        <v>0.8656179140344247</v>
+      </c>
+      <c r="Q7">
+        <v>0.9857180880288888</v>
+      </c>
+      <c r="R7">
+        <v>8.871462792259999</v>
+      </c>
+      <c r="S7">
+        <v>0.03371999522222433</v>
+      </c>
+      <c r="T7">
+        <v>0.03838220808746362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01090033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.032701</v>
+      </c>
+      <c r="I8">
+        <v>0.03905189204810759</v>
+      </c>
+      <c r="J8">
+        <v>0.0443408199682166</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.189184</v>
+      </c>
+      <c r="O8">
+        <v>0.000602137432244878</v>
+      </c>
+      <c r="P8">
+        <v>0.0006036378137891445</v>
+      </c>
+      <c r="Q8">
+        <v>0.0006873895537777777</v>
+      </c>
+      <c r="R8">
+        <v>0.006186505984</v>
+      </c>
+      <c r="S8">
+        <v>2.351460600215167E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.676579562723232E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01090033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.032701</v>
+      </c>
+      <c r="I9">
+        <v>0.03905189204810759</v>
+      </c>
+      <c r="J9">
+        <v>0.0443408199682166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.467965</v>
+      </c>
+      <c r="N9">
+        <v>28.403895</v>
+      </c>
+      <c r="O9">
+        <v>0.0904043069236993</v>
+      </c>
+      <c r="P9">
+        <v>0.09062957269587499</v>
+      </c>
+      <c r="Q9">
+        <v>0.1032039744883333</v>
+      </c>
+      <c r="R9">
+        <v>0.928835770395</v>
+      </c>
+      <c r="S9">
+        <v>0.00353045923466829</v>
+      </c>
+      <c r="T9">
+        <v>0.004018589566704192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01090033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.032701</v>
+      </c>
+      <c r="I10">
+        <v>0.03905189204810759</v>
+      </c>
+      <c r="J10">
+        <v>0.0443408199682166</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7809334999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.561867</v>
+      </c>
+      <c r="O10">
+        <v>0.007456697592460336</v>
+      </c>
+      <c r="P10">
+        <v>0.004983518592002547</v>
+      </c>
+      <c r="Q10">
+        <v>0.008512435461166666</v>
+      </c>
+      <c r="R10">
+        <v>0.051074612767</v>
+      </c>
+      <c r="S10">
+        <v>0.0002911981494161448</v>
+      </c>
+      <c r="T10">
+        <v>0.0002209733006962452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01090033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.032701</v>
+      </c>
+      <c r="I11">
+        <v>0.03905189204810759</v>
+      </c>
+      <c r="J11">
+        <v>0.0443408199682166</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.98709</v>
+      </c>
+      <c r="N11">
+        <v>11.96127</v>
+      </c>
+      <c r="O11">
+        <v>0.03807049435569441</v>
+      </c>
+      <c r="P11">
+        <v>0.03816535686390858</v>
+      </c>
+      <c r="Q11">
+        <v>0.04346061003</v>
+      </c>
+      <c r="R11">
+        <v>0.3911454902700001</v>
+      </c>
+      <c r="S11">
+        <v>0.001486724835796667</v>
+      </c>
+      <c r="T11">
+        <v>0.00169228321772531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.099881</v>
+      </c>
+      <c r="H12">
+        <v>0.199762</v>
+      </c>
+      <c r="I12">
+        <v>0.357836949603104</v>
+      </c>
+      <c r="J12">
+        <v>0.2708666670282525</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.43008666666667</v>
+      </c>
+      <c r="N12">
+        <v>271.29026</v>
+      </c>
+      <c r="O12">
+        <v>0.863466363695901</v>
+      </c>
+      <c r="P12">
+        <v>0.8656179140344247</v>
+      </c>
+      <c r="Q12">
+        <v>9.032247486353333</v>
+      </c>
+      <c r="R12">
+        <v>54.19348491812</v>
+      </c>
+      <c r="S12">
+        <v>0.3089801696698256</v>
+      </c>
+      <c r="T12">
+        <v>0.234467039294453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.099881</v>
+      </c>
+      <c r="H13">
+        <v>0.199762</v>
+      </c>
+      <c r="I13">
+        <v>0.357836949603104</v>
+      </c>
+      <c r="J13">
+        <v>0.2708666670282525</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.189184</v>
+      </c>
+      <c r="O13">
+        <v>0.000602137432244878</v>
+      </c>
+      <c r="P13">
+        <v>0.0006036378137891445</v>
+      </c>
+      <c r="Q13">
+        <v>0.006298629034666666</v>
+      </c>
+      <c r="R13">
+        <v>0.037791774208</v>
+      </c>
+      <c r="S13">
+        <v>0.0002154670219963528</v>
+      </c>
+      <c r="T13">
+        <v>0.0001635053627132865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.099881</v>
+      </c>
+      <c r="H14">
+        <v>0.199762</v>
+      </c>
+      <c r="I14">
+        <v>0.357836949603104</v>
+      </c>
+      <c r="J14">
+        <v>0.2708666670282525</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.467965</v>
+      </c>
+      <c r="N14">
+        <v>28.403895</v>
+      </c>
+      <c r="O14">
+        <v>0.0904043069236993</v>
+      </c>
+      <c r="P14">
+        <v>0.09062957269587499</v>
+      </c>
+      <c r="Q14">
+        <v>0.9456698121649999</v>
+      </c>
+      <c r="R14">
+        <v>5.67401887299</v>
+      </c>
+      <c r="S14">
+        <v>0.03235000142055933</v>
+      </c>
+      <c r="T14">
+        <v>0.02454853029032638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.099881</v>
+      </c>
+      <c r="H15">
+        <v>0.199762</v>
+      </c>
+      <c r="I15">
+        <v>0.357836949603104</v>
+      </c>
+      <c r="J15">
+        <v>0.2708666670282525</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7809334999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.561867</v>
+      </c>
+      <c r="O15">
+        <v>0.007456697592460336</v>
+      </c>
+      <c r="P15">
+        <v>0.004983518592002547</v>
+      </c>
+      <c r="Q15">
+        <v>0.07800041891349999</v>
+      </c>
+      <c r="R15">
+        <v>0.3120016756539999</v>
+      </c>
+      <c r="S15">
+        <v>0.002668281920598816</v>
+      </c>
+      <c r="T15">
+        <v>0.00134986907108906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.099881</v>
+      </c>
+      <c r="H16">
+        <v>0.199762</v>
+      </c>
+      <c r="I16">
+        <v>0.357836949603104</v>
+      </c>
+      <c r="J16">
+        <v>0.2708666670282525</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.98709</v>
+      </c>
+      <c r="N16">
+        <v>11.96127</v>
+      </c>
+      <c r="O16">
+        <v>0.03807049435569441</v>
+      </c>
+      <c r="P16">
+        <v>0.03816535686390858</v>
+      </c>
+      <c r="Q16">
+        <v>0.39823453629</v>
+      </c>
+      <c r="R16">
+        <v>2.38940721774</v>
+      </c>
+      <c r="S16">
+        <v>0.01362302957012388</v>
+      </c>
+      <c r="T16">
+        <v>0.01033772300967076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.123743</v>
+      </c>
+      <c r="I17">
+        <v>0.1477752447236775</v>
+      </c>
+      <c r="J17">
+        <v>0.1677889387274709</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>90.43008666666667</v>
+      </c>
+      <c r="N17">
+        <v>271.29026</v>
+      </c>
+      <c r="O17">
+        <v>0.863466363695901</v>
+      </c>
+      <c r="P17">
+        <v>0.8656179140344247</v>
+      </c>
+      <c r="Q17">
+        <v>3.730030071464445</v>
+      </c>
+      <c r="R17">
+        <v>33.57027064318</v>
+      </c>
+      <c r="S17">
+        <v>0.1275989532058257</v>
+      </c>
+      <c r="T17">
+        <v>0.1452411111393233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.123743</v>
+      </c>
+      <c r="I18">
+        <v>0.1477752447236775</v>
+      </c>
+      <c r="J18">
+        <v>0.1677889387274709</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.189184</v>
+      </c>
+      <c r="O18">
+        <v>0.000602137432244878</v>
+      </c>
+      <c r="P18">
+        <v>0.0006036378137891445</v>
+      </c>
+      <c r="Q18">
+        <v>0.002601132856888889</v>
+      </c>
+      <c r="R18">
+        <v>0.023410195712</v>
+      </c>
+      <c r="S18">
+        <v>8.898100640727362E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001012837481514513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123743</v>
+      </c>
+      <c r="I19">
+        <v>0.1477752447236775</v>
+      </c>
+      <c r="J19">
+        <v>0.1677889387274709</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.467965</v>
+      </c>
+      <c r="N19">
+        <v>28.403895</v>
+      </c>
+      <c r="O19">
+        <v>0.0904043069236993</v>
+      </c>
+      <c r="P19">
+        <v>0.09062957269587499</v>
+      </c>
+      <c r="Q19">
+        <v>0.3905314643316667</v>
+      </c>
+      <c r="R19">
+        <v>3.514783178985</v>
+      </c>
+      <c r="S19">
+        <v>0.01335951857972411</v>
+      </c>
+      <c r="T19">
+        <v>0.01520663981996504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.123743</v>
+      </c>
+      <c r="I20">
+        <v>0.1477752447236775</v>
+      </c>
+      <c r="J20">
+        <v>0.1677889387274709</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7809334999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.561867</v>
+      </c>
+      <c r="O20">
+        <v>0.007456697592460336</v>
+      </c>
+      <c r="P20">
+        <v>0.004983518592002547</v>
+      </c>
+      <c r="Q20">
+        <v>0.03221168469683333</v>
+      </c>
+      <c r="R20">
+        <v>0.193270108181</v>
+      </c>
+      <c r="S20">
+        <v>0.001101915311556283</v>
+      </c>
+      <c r="T20">
+        <v>0.0008361792956807277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.123743</v>
+      </c>
+      <c r="I21">
+        <v>0.1477752447236775</v>
+      </c>
+      <c r="J21">
+        <v>0.1677889387274709</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.98709</v>
+      </c>
+      <c r="N21">
+        <v>11.96127</v>
+      </c>
+      <c r="O21">
+        <v>0.03807049435569441</v>
+      </c>
+      <c r="P21">
+        <v>0.03816535686390858</v>
+      </c>
+      <c r="Q21">
+        <v>0.16445815929</v>
+      </c>
+      <c r="R21">
+        <v>1.48012343361</v>
+      </c>
+      <c r="S21">
+        <v>0.005625876620164124</v>
+      </c>
+      <c r="T21">
+        <v>0.006403724724350419</v>
       </c>
     </row>
   </sheetData>
